--- a/WppRegpack/TestResource/Critical_Regression/DS_SNG_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_SNG_CRITICAL_REGRESSION.xlsx
@@ -3484,7 +3484,7 @@
     <t>SGP Treasury (TSTAUTO)</t>
   </si>
   <si>
-    <t>3543214654</t>
+    <t>3543224650</t>
   </si>
 </sst>
 </file>
@@ -12545,7 +12545,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12656,7 +12656,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WppRegpack/TestResource/Critical_Regression/DS_SNG_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_SNG_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -54,11 +54,13 @@
     <sheet name="Reverse a Credit Note" sheetId="40" r:id="rId40"/>
     <sheet name="Reverse Invoice" sheetId="41" r:id="rId41"/>
     <sheet name="Credit Note With PO" sheetId="42" r:id="rId42"/>
-    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId43"/>
-    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId44"/>
-    <sheet name="CreateClient" sheetId="49" r:id="rId45"/>
-    <sheet name="Agency Users" sheetId="11" r:id="rId46"/>
-    <sheet name="SSC Users" sheetId="12" r:id="rId47"/>
+    <sheet name="CreateClient" sheetId="49" r:id="rId43"/>
+    <sheet name="AmendGlobalClient" sheetId="50" r:id="rId44"/>
+    <sheet name="AmendGlobalBrand" sheetId="51" r:id="rId45"/>
+    <sheet name="BlockGlobalClient" sheetId="48" r:id="rId46"/>
+    <sheet name="BlockGlobalBrand" sheetId="47" r:id="rId47"/>
+    <sheet name="Agency Users" sheetId="11" r:id="rId48"/>
+    <sheet name="SSC Users" sheetId="12" r:id="rId49"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1143">
   <si>
     <t>Description</t>
   </si>
@@ -2707,18 +2709,9 @@
     <t>Brand Number</t>
   </si>
   <si>
-    <t>111429001</t>
-  </si>
-  <si>
     <t>Brand Name</t>
   </si>
   <si>
-    <t>Camlin</t>
-  </si>
-  <si>
-    <t>111429</t>
-  </si>
-  <si>
     <t>RB128</t>
   </si>
   <si>
@@ -3485,6 +3478,30 @@
   </si>
   <si>
     <t>3543224650</t>
+  </si>
+  <si>
+    <t>1517</t>
+  </si>
+  <si>
+    <t>Address_1</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.81</t>
+  </si>
+  <si>
+    <t>Address_2</t>
+  </si>
+  <si>
+    <t>Address_3</t>
+  </si>
+  <si>
+    <t>1517Auto1@gmail.com</t>
+  </si>
+  <si>
+    <t>No.2  Ward No.83</t>
+  </si>
+  <si>
+    <t>151707Auto1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3788,7 +3805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4002,6 +4019,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4318,7 +4336,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -6240,10 +6258,10 @@
         <v>137</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I1" s="27" t="s">
         <v>138</v>
@@ -6258,10 +6276,10 @@
         <v>141</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>142</v>
@@ -6276,10 +6294,10 @@
         <v>145</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="U1" s="27" t="s">
         <v>146</v>
@@ -6294,10 +6312,10 @@
         <v>149</v>
       </c>
       <c r="Y1" s="27" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="AA1" s="27" t="s">
         <v>150</v>
@@ -6312,10 +6330,10 @@
         <v>153</v>
       </c>
       <c r="AE1" s="27" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="AF1" s="27" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="AG1" s="27" t="s">
         <v>154</v>
@@ -6330,10 +6348,10 @@
         <v>157</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="AL1" s="27" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="AM1" s="27" t="s">
         <v>158</v>
@@ -6348,10 +6366,10 @@
         <v>161</v>
       </c>
       <c r="AQ1" s="27" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="AR1" s="27" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="AS1" s="27" t="s">
         <v>162</v>
@@ -6366,10 +6384,10 @@
         <v>165</v>
       </c>
       <c r="AW1" s="27" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="AX1" s="27" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AY1" s="27" t="s">
         <v>166</v>
@@ -6384,10 +6402,10 @@
         <v>169</v>
       </c>
       <c r="BC1" s="27" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="BD1" s="27" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="BE1" s="27" t="s">
         <v>170</v>
@@ -6402,10 +6420,10 @@
         <v>173</v>
       </c>
       <c r="BI1" s="27" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="BJ1" s="27" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
@@ -6428,7 +6446,7 @@
         <v>239</v>
       </c>
       <c r="H2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="I2">
         <v>5</v>
@@ -6457,7 +6475,7 @@
         <v>871</v>
       </c>
       <c r="H3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I3">
         <v>10</v>
@@ -6483,10 +6501,10 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="H4" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -6495,10 +6513,10 @@
         <v>800</v>
       </c>
       <c r="K4" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="L4" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -7465,7 +7483,7 @@
         <v>1322</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
@@ -7473,7 +7491,7 @@
         <v>1319</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
@@ -7481,7 +7499,7 @@
         <v>1228</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C4" s="94"/>
     </row>
@@ -7525,7 +7543,7 @@
         <v>874</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>875</v>
@@ -7580,7 +7598,7 @@
         <v>874</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F1" s="31" t="s">
         <v>875</v>
@@ -7596,7 +7614,7 @@
       <c r="C2" s="60"/>
       <c r="D2" s="59"/>
       <c r="E2" s="59" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="F2" s="59"/>
     </row>
@@ -7937,7 +7955,7 @@
         <v>413</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7945,7 +7963,7 @@
         <v>815</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7953,7 +7971,7 @@
         <v>785</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +7979,7 @@
         <v>816</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7969,7 +7987,7 @@
         <v>817</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7977,7 +7995,7 @@
         <v>408</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7985,7 +8003,7 @@
         <v>378</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7993,7 +8011,7 @@
         <v>793</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8001,7 +8019,7 @@
         <v>417</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8009,7 +8027,7 @@
         <v>430</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8017,7 +8035,7 @@
         <v>513</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8025,7 +8043,7 @@
         <v>423</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8033,7 +8051,7 @@
         <v>428</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8041,7 +8059,7 @@
         <v>436</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8049,7 +8067,7 @@
         <v>432</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8057,7 +8075,7 @@
         <v>439</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8065,7 +8083,7 @@
         <v>463</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8073,7 +8091,7 @@
         <v>447</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8081,7 +8099,7 @@
         <v>445</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8089,7 +8107,7 @@
         <v>473</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8097,7 +8115,7 @@
         <v>443</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8105,7 +8123,7 @@
         <v>476</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8113,7 +8131,7 @@
         <v>456</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8129,7 +8147,7 @@
         <v>460</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8137,7 +8155,7 @@
         <v>467</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8145,7 +8163,7 @@
         <v>441</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8153,7 +8171,7 @@
         <v>465</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8161,7 +8179,7 @@
         <v>819</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8169,7 +8187,7 @@
         <v>452</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8185,7 +8203,7 @@
         <v>501</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8193,7 +8211,7 @@
         <v>624</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8201,7 +8219,7 @@
         <v>493</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8217,7 +8235,7 @@
         <v>497</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8225,7 +8243,7 @@
         <v>506</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8233,7 +8251,7 @@
         <v>511</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8241,7 +8259,7 @@
         <v>478</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8249,7 +8267,7 @@
         <v>516</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8257,7 +8275,7 @@
         <v>518</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8265,7 +8283,7 @@
         <v>523</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8273,7 +8291,7 @@
         <v>419</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8281,7 +8299,7 @@
         <v>820</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8289,7 +8307,7 @@
         <v>821</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8297,7 +8315,7 @@
         <v>526</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8305,7 +8323,7 @@
         <v>535</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8313,7 +8331,7 @@
         <v>540</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8321,7 +8339,7 @@
         <v>550</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8329,7 +8347,7 @@
         <v>553</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8337,7 +8355,7 @@
         <v>548</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8345,7 +8363,7 @@
         <v>566</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8353,7 +8371,7 @@
         <v>562</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8361,7 +8379,7 @@
         <v>569</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8369,7 +8387,7 @@
         <v>575</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8377,7 +8395,7 @@
         <v>573</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8385,7 +8403,7 @@
         <v>509</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -8393,7 +8411,7 @@
         <v>571</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8401,7 +8419,7 @@
         <v>577</v>
       </c>
       <c r="B60" s="30" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8409,7 +8427,7 @@
         <v>581</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8417,7 +8435,7 @@
         <v>592</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8425,7 +8443,7 @@
         <v>406</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8433,7 +8451,7 @@
         <v>587</v>
       </c>
       <c r="B64" s="30" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8441,7 +8459,7 @@
         <v>579</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -8449,7 +8467,7 @@
         <v>595</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8457,7 +8475,7 @@
         <v>601</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8465,7 +8483,7 @@
         <v>597</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8473,7 +8491,7 @@
         <v>605</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8481,7 +8499,7 @@
         <v>611</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -8489,7 +8507,7 @@
         <v>480</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -8497,7 +8515,7 @@
         <v>499</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -8505,7 +8523,7 @@
         <v>749</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -8513,7 +8531,7 @@
         <v>609</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -8521,7 +8539,7 @@
         <v>487</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -8529,7 +8547,7 @@
         <v>603</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -8537,7 +8555,7 @@
         <v>613</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -8545,7 +8563,7 @@
         <v>616</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -8553,7 +8571,7 @@
         <v>753</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -8561,7 +8579,7 @@
         <v>822</v>
       </c>
       <c r="B80" s="30" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -8569,7 +8587,7 @@
         <v>823</v>
       </c>
       <c r="B81" s="30" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -8577,7 +8595,7 @@
         <v>622</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -8585,7 +8603,7 @@
         <v>657</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -8593,7 +8611,7 @@
         <v>650</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -8601,7 +8619,7 @@
         <v>630</v>
       </c>
       <c r="B85" s="30" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -8609,7 +8627,7 @@
         <v>681</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -8617,7 +8635,7 @@
         <v>661</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -8625,7 +8643,7 @@
         <v>653</v>
       </c>
       <c r="B88" s="30" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -8633,7 +8651,7 @@
         <v>628</v>
       </c>
       <c r="B89" s="30" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -8641,7 +8659,7 @@
         <v>825</v>
       </c>
       <c r="B90" s="30" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -8649,7 +8667,7 @@
         <v>644</v>
       </c>
       <c r="B91" s="30" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -8657,7 +8675,7 @@
         <v>636</v>
       </c>
       <c r="B92" s="30" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -8665,7 +8683,7 @@
         <v>632</v>
       </c>
       <c r="B93" s="30" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -8673,7 +8691,7 @@
         <v>647</v>
       </c>
       <c r="B94" s="30" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -8681,7 +8699,7 @@
         <v>634</v>
       </c>
       <c r="B95" s="30" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -8689,7 +8707,7 @@
         <v>826</v>
       </c>
       <c r="B96" s="30" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -8697,7 +8715,7 @@
         <v>659</v>
       </c>
       <c r="B97" s="30" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -8705,7 +8723,7 @@
         <v>674</v>
       </c>
       <c r="B98" s="30" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -8713,7 +8731,7 @@
         <v>671</v>
       </c>
       <c r="B99" s="30" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -8721,7 +8739,7 @@
         <v>683</v>
       </c>
       <c r="B100" s="30" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -8729,7 +8747,7 @@
         <v>666</v>
       </c>
       <c r="B101" s="30" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -8737,7 +8755,7 @@
         <v>491</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -8745,7 +8763,7 @@
         <v>685</v>
       </c>
       <c r="B103" s="30" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -8753,7 +8771,7 @@
         <v>696</v>
       </c>
       <c r="B104" s="30" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -8761,7 +8779,7 @@
         <v>692</v>
       </c>
       <c r="B105" s="30" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -8769,7 +8787,7 @@
         <v>698</v>
       </c>
       <c r="B106" s="30" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -8777,7 +8795,7 @@
         <v>687</v>
       </c>
       <c r="B107" s="30" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -8785,7 +8803,7 @@
         <v>701</v>
       </c>
       <c r="B108" s="30" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -8793,7 +8811,7 @@
         <v>694</v>
       </c>
       <c r="B109" s="30" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -8801,7 +8819,7 @@
         <v>705</v>
       </c>
       <c r="B110" s="30" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -8809,7 +8827,7 @@
         <v>827</v>
       </c>
       <c r="B111" s="30" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -8817,7 +8835,7 @@
         <v>708</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -8825,7 +8843,7 @@
         <v>730</v>
       </c>
       <c r="B113" s="30" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -8833,7 +8851,7 @@
         <v>710</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -8841,7 +8859,7 @@
         <v>712</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -8849,7 +8867,7 @@
         <v>727</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -8865,7 +8883,7 @@
         <v>732</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -8873,7 +8891,7 @@
         <v>760</v>
       </c>
       <c r="B119" s="30" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -8889,7 +8907,7 @@
         <v>734</v>
       </c>
       <c r="B121" s="30" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -8897,7 +8915,7 @@
         <v>757</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -8905,7 +8923,7 @@
         <v>829</v>
       </c>
       <c r="B123" s="30" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -8913,7 +8931,7 @@
         <v>533</v>
       </c>
       <c r="B124" s="30" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8921,7 +8939,7 @@
         <v>771</v>
       </c>
       <c r="B125" s="30" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -8929,7 +8947,7 @@
         <v>767</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -8937,7 +8955,7 @@
         <v>781</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -8945,7 +8963,7 @@
         <v>776</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -8953,7 +8971,7 @@
         <v>783</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -8961,7 +8979,7 @@
         <v>778</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8969,7 +8987,7 @@
         <v>765</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -8977,7 +8995,7 @@
         <v>769</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -8985,7 +9003,7 @@
         <v>791</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -8993,7 +9011,7 @@
         <v>789</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -9001,7 +9019,7 @@
         <v>795</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -9009,7 +9027,7 @@
         <v>798</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -9017,7 +9035,7 @@
         <v>805</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -9025,7 +9043,7 @@
         <v>800</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -9033,7 +9051,7 @@
         <v>722</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -9041,7 +9059,7 @@
         <v>425</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -9049,7 +9067,7 @@
         <v>454</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -9057,7 +9075,7 @@
         <v>545</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -9065,7 +9083,7 @@
         <v>809</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -9073,7 +9091,7 @@
         <v>746</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -9081,7 +9099,7 @@
         <v>831</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
@@ -9233,16 +9251,16 @@
         <v>1322</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F2" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -9250,16 +9268,16 @@
         <v>1319</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E3" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="F3" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9267,16 +9285,16 @@
         <v>1228</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D4" s="60" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="E4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="F4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -12221,10 +12239,424 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="105">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B16" s="106" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B18">
+        <v>15179905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="105">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="105">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B4" s="107"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12238,40 +12670,33 @@
       <c r="A1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="95">
-        <v>1284</v>
+      <c r="B1" s="95" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>876</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>881</v>
-      </c>
+      <c r="B2" s="60"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>378</v>
+      <c r="B3" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>877</v>
       </c>
-      <c r="B4" s="96" t="s">
-        <v>878</v>
-      </c>
+      <c r="B4" s="96"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>879</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -12280,264 +12705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="30"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="95">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>876</v>
-      </c>
-      <c r="B2" s="30">
-        <v>111429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>378</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="105">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B16" s="106" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B18">
-        <v>15179905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -12567,7 +12735,7 @@
         <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12575,7 +12743,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12583,7 +12751,7 @@
         <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12591,7 +12759,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12599,7 +12767,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12607,7 +12775,7 @@
         <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12615,7 +12783,7 @@
         <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12623,7 +12791,7 @@
         <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12631,7 +12799,7 @@
         <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12639,7 +12807,7 @@
         <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -12648,7 +12816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -12679,7 +12847,7 @@
         <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -12687,7 +12855,7 @@
         <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -12695,7 +12863,7 @@
         <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -12703,7 +12871,7 @@
         <v>183</v>
       </c>
       <c r="B5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -12711,7 +12879,7 @@
         <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12719,7 +12887,7 @@
         <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -12727,7 +12895,7 @@
         <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -12735,7 +12903,7 @@
         <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -12743,7 +12911,7 @@
         <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -12751,7 +12919,7 @@
         <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -12759,7 +12927,7 @@
         <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -12767,7 +12935,7 @@
         <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -12775,7 +12943,7 @@
         <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12783,7 +12951,7 @@
         <v>194</v>
       </c>
       <c r="B15" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -12857,10 +13025,10 @@
         <v>870</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12888,13 +13056,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E5" s="98" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -12905,13 +13073,13 @@
         <v>66</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12922,13 +13090,13 @@
         <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -12959,7 +13127,7 @@
         <v>247</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E9" s="93" t="s">
         <v>247</v>
@@ -12973,13 +13141,13 @@
         <v>67</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12993,7 +13161,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>9</v>
@@ -13010,7 +13178,7 @@
         <v>288</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>223</v>
@@ -13024,13 +13192,13 @@
         <v>70</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E13" s="98" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -13041,13 +13209,13 @@
         <v>128</v>
       </c>
       <c r="C14" s="99" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E14" s="99" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -13058,13 +13226,13 @@
         <v>71</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E15" s="100" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -13075,13 +13243,13 @@
         <v>72</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E16" s="98" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13561,7 +13729,7 @@
         <v>239</v>
       </c>
       <c r="I3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -13575,7 +13743,7 @@
         <v>1319</v>
       </c>
       <c r="C4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
@@ -13593,7 +13761,7 @@
         <v>871</v>
       </c>
       <c r="I4" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -13607,7 +13775,7 @@
         <v>1228</v>
       </c>
       <c r="C5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D5" t="s">
         <v>73</v>
@@ -13622,10 +13790,10 @@
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="I5" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="J5">
         <v>12</v>
@@ -13634,10 +13802,10 @@
         <v>800</v>
       </c>
       <c r="L5" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="M5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="N5">
         <v>5</v>

--- a/WppRegpack/TestResource/Critical_Regression/DS_SNG_CRITICAL_REGRESSION.xlsx
+++ b/WppRegpack/TestResource/Critical_Regression/DS_SNG_CRITICAL_REGRESSION.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" firstSheet="42" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="Server Details" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="1141">
   <si>
     <t>Description</t>
   </si>
@@ -3495,13 +3495,7 @@
     <t>Address_3</t>
   </si>
   <si>
-    <t>1517Auto1@gmail.com</t>
-  </si>
-  <si>
     <t>No.2  Ward No.83</t>
-  </si>
-  <si>
-    <t>151707Auto1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3805,7 +3799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4018,7 +4012,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -12241,8 +12234,8 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12375,7 +12368,7 @@
       <c r="A16" t="s">
         <v>1102</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -12436,11 +12429,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12452,7 +12442,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12509,7 +12499,7 @@
         <v>1102</v>
       </c>
       <c r="B8" t="s">
-        <v>1140</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
@@ -12525,7 +12515,7 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -12560,7 +12550,7 @@
       <c r="A4" t="s">
         <v>877</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="106"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -12572,7 +12562,7 @@
         <v>1136</v>
       </c>
       <c r="B6" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -12595,7 +12585,7 @@
         <v>1102</v>
       </c>
       <c r="B10" t="s">
-        <v>1142</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
